--- a/data/supervision_pos_es.xlsx
+++ b/data/supervision_pos_es.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018D8B79-79F1-43D2-859F-20EE93DBA193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139FB847-A7DB-41B8-869F-858683B5FF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27495" yWindow="2145" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>what</t>
   </si>
@@ -52,27 +65,15 @@
     <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}, Colombia</t>
   </si>
   <si>
-    <t>\href{https://www.stir.ac.uk/}{University of Stirling}, UK</t>
-  </si>
-  <si>
-    <t>\href{https://www.uel.ac.uk/}{University of East London}, UK</t>
-  </si>
-  <si>
     <t>\href{https://www.uv.es/}{Universitat de València}, España</t>
   </si>
   <si>
     <t>PhD in Neuroscience</t>
   </si>
   <si>
-    <t>\textbf{\textit{Summa Cum Laude}}</t>
-  </si>
-  <si>
     <t>Maestría en Psicología</t>
   </si>
   <si>
-    <t>\textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
     <t>Psychological Research Methods (Evolutionary Psychology) MSc</t>
   </si>
   <si>
@@ -98,6 +99,24 @@
   </si>
   <si>
     <t>Supervisión conjunta con \href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}</t>
+  </si>
+  <si>
+    <t>Tésis: \textit{ What sense do people make of the functions of their ’behaviours that may be causing problems in their everyday life’? A hybrid deductive/inductive template analysis}</t>
+  </si>
+  <si>
+    <t>\href{https://www.stir.ac.uk/}{University of Stirling}, Reino Unido</t>
+  </si>
+  <si>
+    <t>\href{https://www.uel.ac.uk/}{U. of East London}, Reino Unido</t>
+  </si>
+  <si>
+    <t>Tésis \textbf{\textit{(Summa Cum Laude)}}: \textit{\href{http://hdl.handle.net/10550/67639}{Preferencias sexuales típicas y atípicas según sexo y edad de los estímulos: Utilidad de la técnica de rastreo ocular} [Typical and atypical sexual preferences according to sex and age of the stimuli: Usefulness of the eye tracking technique]}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado \textbf{\textit{(Meritorio)}}: \textit{Sexy Chat: Mate-Choice Preferences for Speech Content in the Absence of Auditory Cues}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado \textbf{\textit{(Meritorio)}}: \textit{\href{http://hdl.handle.net/20.500.12495/4416}{La voz como predictor de sintomatología asociada a depresión y ansiedad} [Voice as a predictor of symptomatology associated with depression and anxiety]}</t>
   </si>
 </sst>
 </file>
@@ -947,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +978,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
     <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="133.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="118.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,21 +998,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,76 +1021,76 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,7 +1098,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1091,42 +1112,36 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
@@ -1151,6 +1166,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/supervision_pos_es.xlsx
+++ b/data/supervision_pos_es.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139FB847-A7DB-41B8-869F-858683B5FF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E4F2F8-620B-48D3-AC4E-4A843578A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27495" yWindow="2145" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -966,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,21 +1050,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,24 +1073,24 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1099,13 +1099,12 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -1136,12 +1135,14 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
@@ -1159,20 +1160,6 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
